--- a/dataset_2022/benchmark2022.xlsx
+++ b/dataset_2022/benchmark2022.xlsx
@@ -4539,14 +4539,14 @@
   </sheetPr>
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R96" activeCellId="0" sqref="R96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I76" activeCellId="0" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.18"/>
   </cols>
   <sheetData>

--- a/dataset_2022/benchmark2022.xlsx
+++ b/dataset_2022/benchmark2022.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="1266">
   <si>
     <t xml:space="preserve">B081K3R8HJ</t>
   </si>
@@ -815,45 +815,6 @@
     <t xml:space="preserve">{'0': 'M23ZBXWF92VJL8'}</t>
   </si>
   <si>
-    <t xml:space="preserve">B07K218BBW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shocking Facts About Plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VoiceNoob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-CA': ['”Alexa, open plants facts”', '”Alexa, launch plants facts”', '”Alexa, start plants facts”'], 'en-US': ['”Alexa, open plants facts”', '”Alexa, launch plants facts”'], 'en-IN': ['”Alexa, open plants facts”', '”Alexa, launch plants facts”', '”Alexa, start plants facts”'], 'en-AU': ['”Alexa, open plants facts”', '”Alexa, launch plants facts”', '”Alexa, start plants facts”'], 'en-GB': ['”Alexa, open plants facts”', '”Alexa, launch plants facts”', '”Alexa, start plants facts”']}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/71w1Ltcf8PL.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-IN': 'plants facts', 'en-AU': 'plants facts', 'en-US': 'plants facts', 'en-CA': 'plants facts', 'en-GB': 'plants facts'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plants are mainly multicellular, predominantly photosynthetic eukaryotes of the kingdom Plantae. Learn some more mind blowing facts like this.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-IN': 'Learn some amazing mind blowing unknown facts about plants.', 'en-AU': 'Learn some amazing mind blowing unknown facts about plants.', 'en-CA': 'Learn some amazing mind blowing unknown facts about plants.', 'en-US': 'Learn some amazing mind blowing unknown facts about plants.', 'en-GB': 'Learn some amazing mind blowing unknown facts about plants.'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn some amazing mind blowing unknown facts about plants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-31T08:21:34Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-28T08:14:36Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-IN': 'Shocking Facts About Plants', 'en-AU': 'Shocking Facts About Plants', 'en-CA': 'Shocking Facts About Plants', 'en-US': 'Shocking Facts About Plants', 'en-GB': 'Shocking Facts About Plants'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'0': 'MFOTD9LYKGMPO'}</t>
-  </si>
-  <si>
     <t xml:space="preserve">B01MRG6CV3</t>
   </si>
   <si>
@@ -999,60 +960,6 @@
   </si>
   <si>
     <t xml:space="preserve">{'0': 'M16VJ8GH0FOR0Q'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B07FSR3V7D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ebitcam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EBit Information Technology Co.,Ltd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'de-DE': ['„Alexa, zeige das Wohnzimmer.”', '„Alexa, zeige die Kamera im Wohnzimmer.”', '„Alexa, Wohnzimmer ausblenden.”'], 'en-CA': ['”Alexa, show office.”', '”Alexa, show my office camera.”', '”Alexa, hide office.”'], 'en-US': ['”Alexa, show office.”', '”Alexa, show my office camera.”', '”Alexa,hide office.”'], 'en-IN': ['”Alexa, show office.”', '”Alexa, show my office camera.”', '”Alexa, hide office.”'], 'en-AU': ['”Alexa, show office.”', '”Alexa, show my office camera.”', '”Alexa, hide office.”'], 'en-GB': ['”Alexa, show office.”', '”Alexa, show my office camera.”', '”Alexa, hide office.”']}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/51LG4olbRPL.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smart Home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-AU': 'English (AU)', 'en-CA': 'English (CA)', 'en-GB': 'English (GB)', 'en-IN': 'English (IN)', 'en-US': 'English (US)', 'de-DE': 'German (DE)'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-IN': 'https://sites.google.com/view/ebitcam', 'en-AU': 'https://sites.google.com/view/ebitcam', 'de-DE': 'https://us13.ebitcam.com:2447/ebitcam/de.htm', 'en-CA': 'https://sites.google.com/view/ebitcam', 'en-US': 'https://sites.google.com/view/ebitcam', 'en-GB': 'https://sites.google.com/view/ebitcam'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With the ebitcam skill and Alexa, you can now interact with your ebitcam devices by voice. To get started, select the 'Enable Skill' button in the Alexa App to link ebitcam account and discover your devices. Find more information about connecting smart home devices at Connect a Smart Home Device to Alexa (http://tinyurl.com/alexa-smart-home).
-When using the skill, you need established names for your devices. There are two ways to define these names:
-•	Use the names you previously set up. They are shown in the ebitcam app and can be changed
-•	Create an Alexa group, like Bedroom or Downstairs, and add the device to the group. More information is available at Create a Smart Home Device Group (http://tinyurl.com/alexa-smart-home-groups)
-Once you know the name or group name for your devices, you can say the following:
-•	"Alexa, show office."
-•	"Alexa, show my office camera"
-•	"Alexa, turn on ofiice socket"
-•	"Alexa, turn off office socket"
-If you have any questions, please provide us by FAQ email ebitcam.app@gmail.com.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-IN': 'With this skill, you can show feed of ebitcam on echo show and fire tv.And you can control all the sockets in the house.', 'en-AU': 'With this skill, you can show feed of ebitcam on echo show and fire tv.And you can control all the sockets in the house.', 'de-DE': 'Du suchst nach wie Sie den Kamerabildschirm fernsehen können durch Echo Show oder Echo Sopt? Ich sag dir die Antwort hier – mit Ebitcam.', 'en-CA': 'With this skill, you can show feed of ebitcam on echo show and fire tv.', 'en-US': 'With this skill, you can show feed of ebitcam on echo show and fire tv.And you can control all the sockets in the house.', 'en-GB': 'With this skill, you can show feed of ebitcam on echo show and fire tv.And you can control all the sockets in the house.'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With this skill, you can show feed of ebitcam on echo show and fire tv.And you can control all the sockets in the house.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-23T10:51:53Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-23T01:48:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-IN': 'Ebitcam', 'en-AU': 'Ebitcam', 'de-DE': 'Ebitcam', 'en-CA': 'Ebitcam', 'en-US': 'Ebitcam', 'en-GB': 'Ebitcam'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'0': 'M2YCGJN9IF0WRU'}</t>
   </si>
   <si>
     <t xml:space="preserve">B09NJK1VC1</t>
@@ -1349,45 +1256,6 @@
     <t xml:space="preserve">{'0': 'M2QEDU4F7DAY55'}</t>
   </si>
   <si>
-    <t xml:space="preserve">B07NQJHKBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigCat Assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': ['”Alexa, open Config Cat and check health.”']}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/51f2b2BCobL.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'config cat'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfigCat is a feature flag and remote configuration management service. Now you can check the system health with Alexa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'Skill to check ConfigCat service health.'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skill to check ConfigCat service health.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-02-14T10:37:23Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-02-14T00:09:40Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'ConfigCat Assistant'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'0': 'M1SRI1UHP43RJ2'}</t>
-  </si>
-  <si>
     <t xml:space="preserve">B07CW156T1</t>
   </si>
   <si>
@@ -1645,45 +1513,6 @@
     <t xml:space="preserve">2018-10-31T19:03:11Z</t>
   </si>
   <si>
-    <t xml:space="preserve">B08CDNWS9X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strong Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike Cognata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': ['”Alexa, open strengthen my force”', '”Alexa, start strengthen my force”', '”Alexa, ask strengthen my force for a fact”']}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/81sePTVtSCL.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'strengthen my force'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ask Alexa, "Strengthen my Force", and become a more formidable agent for good in the universe. Is your voice strong?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'Strengthen your force. Be our hero!'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strengthen your force. Be our hero!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-06T08:00:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-05T08:15:18Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'Strong Force'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'0': 'M2LKGWHY8P7CBK'}</t>
-  </si>
-  <si>
     <t xml:space="preserve">B07JRCGD9Q</t>
   </si>
   <si>
@@ -1715,91 +1544,6 @@
   </si>
   <si>
     <t xml:space="preserve">{'0': 'MYYYLHFCR5EGR'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B08JCYSYHX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My IceCream Facts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student/self employed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': ['”Alexa, open my icecream facts”', '”Alexa, start my icecream facts”', '”Alexa, ask my icecream facts for a fact”']}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/51cI6aCn6nL.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'my icecream facts'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ask Alexa for an interesting list of facts about your topic of choice. When using the skill, you can say "Alexa, next" to move to the next fact. At any point, you can say "Alexa, stop" to exit the skill.
-This skill was created using a Skill Blueprint.  Your requests to this skill are not shared with the skill developer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'Listen to interesting list of facts about your topic of choice.'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listen to interesting list of facts about your topic of choice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-17T18:08:16Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-30T12:28:11Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'My IceCream Facts'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'0': 'M2GJGW2BG9WR3Z'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B079KN7897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Helena Catholic School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isaac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': ['”Alexa, Open St. Helena Catholic School”', '”Alexa, Start St. Helena Catholic School”', '”Alexa, Launch St. Helena Catholic School”'], 'en-AU': ['”Alexa, Open St. Helena Catholic School”', '”Alexa, Start St. Helena Catholic School”', '”Alexa, Launch St. Helena Catholic School”'], 'en-GB': ['”Alexa, Open St. Helena Catholic School”', '”Alexa, Start St. Helena Catholic School”', '”Alexa, Launch St. Helena Catholic School”']}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/614KMXTpoSL.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-AU': 'English (AU)', 'en-GB': 'English (GB)', 'en-US': 'English (US)'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-AU': 'st. helena catholic school', 'en-GB': 'st. helena catholic school', 'en-US': 'st. helena catholic school'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Helena Catholic School Skill can help you with useful information, like upcoming events and homework assignments!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-AU': "St. Helena Catholic School's own skill!", 'en-GB': "St. Helena Catholic School's own skill!", 'en-US': "St. Helena Catholic School's own skill!"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Helena Catholic School's own skill!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-09T07:17:21Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-08T23:51:56Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-AU': 'St. Helena Catholic School', 'en-GB': 'St. Helena Catholic School', 'en-US': 'St. Helena Catholic School'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'0': 'M35DK811DDL7CS'}</t>
   </si>
   <si>
     <t xml:space="preserve">B01LYK4FI5</t>
@@ -2028,89 +1772,6 @@
     <t xml:space="preserve">{'en-IN': 'FavTrip 10507 E', 'en-AU': 'FavTrip 10507 E', 'en-CA': 'FavTrip 10507 E', 'en-US': 'FavTrip 10507 E', 'en-GB': 'FavTrip 10507 E'}</t>
   </si>
   <si>
-    <t xml:space="preserve">B081KV44CY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fast Food Restaurant Picker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacie Valle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': ['”Alexa, open Fast Food”', '”Alexa, ask Fast Food who should take out the trash”']}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/61iTmV2NKpL.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'fast food'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next time you're trying to decide where to go for dinner and all the Fast Food sounds good, just ask Alexa for help. Simply say “open Fast Food” and she’ll tell you where you should go.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'When you can’t decide where to eat let Alexa decide for you!'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you can’t decide where to eat let Alexa decide for you!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-11-16T06:00:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-11-16T05:53:47Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'Fast Food Restaurant Picker'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'0': 'M2N86HK9GBCJ2T'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B0762YYDS9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR Controller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Higgins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'it-IT': ['”Alexa, accendi la TV della camera”', '”Alexa, metti in muto la TV della camera”', '”Alexa, alza il volume di 5 sulla TV della camera”'], 'de-DE': ['„Alexa, schalte Schlafzimmer TV ein”', '„Alexa, schalte Schlafzimmer TV aus”', '„Alexa, stelle die lautstärke von Schlafzimmer TV auf 5”'], 'en-CA': ['”Alexa, turn on bedroom TV”', '”Alexa, mute bedroom TV”', '”Alexa, turn up the volume by 5 on bedroom TV”'], 'en-US': ['”Alexa, turn on bedroom TV”', '”Alexa, mute bedroom TV”', '”Alexa, turn up the volume by 5 on bedroom TV”'], 'en-IN': ['”Alexa, turn on bedroom TV”', '”Alexa, mute bedroom TV”', '”Alexa, turn up the volume by 5 on bedroom TV”'], 'en-AU': ['”Alexa, turn on bedroom TV”', '”Alexa, mute bedroom TV”', '”Alexa, turn up the volume by 5 on bedroom TV”'], 'en-GB': ['”Alexa, turn on bedroom TV”', '”Alexa, mute bedroom TV”', '”Alexa, turn up the volume by 5 on bedroom TV”']}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/61S4z9KLS9L.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-AU': 'English (AU)', 'en-CA': 'English (CA)', 'en-GB': 'English (GB)', 'en-IN': 'English (IN)', 'en-US': 'English (US)', 'de-DE': 'German (DE)', 'it-IT': 'Italian (IT)'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'it-IT': 'https://tehpsyc.pythonanywhere.com/privacy', 'de-DE': 'https://tehpsyc.pythonanywhere.com/privacy', 'en-CA': 'https://tehpsyc.pythonanywhere.com/privacy', 'en-US': 'https://tehpsyc.pythonanywhere.com/privacy', 'en-IN': 'https://tehpsyc.pythonanywhere.com/privacy', 'en-AU': 'https://tehpsyc.pythonanywhere.com/privacy', 'en-GB': 'https://tehpsyc.pythonanywhere.com/privacy'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR Controller Smart Home Skill that allows registration of your TV / other infrared smart home controller devices with Alexa. Your http URLs are translated into natural language smart home operations.
-Register your IR Controller smart devices at https://tehpsyc.pythonanywhere.com/
-Skill is designed to work with the https://github.com/mdhiggins/ESP8266-HTTP-IR-Blaster schematic and software. It may be possible to use similar HTTP enabled devices as well. The IR Blaster can be easily assembled with parts under $10 and provides full home theater control.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'it-IT': 'Telecomando IR per casa intelligente', 'de-DE': 'IR-Controller Smart Home Skill', 'en-CA': 'IR Controller Smart Home Skill', 'en-US': 'IR Controller Smart Home Skill', 'en-IN': 'IR Controller Smart Home Skill', 'en-AU': 'IR Controller Smart Home Skill', 'en-GB': 'IR Controller Smart Home Skill'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR Controller Smart Home Skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-06T08:07:52Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-09T06:55:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'it-IT': 'IR Controller', 'de-DE': 'IR Controller', 'en-CA': 'IR Controller', 'en-US': 'IR Controller', 'en-IN': 'IR Controller', 'en-AU': 'IR Controller', 'en-GB': 'IR Controller'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'0': 'M1X0QTS841VHDB'}</t>
-  </si>
-  <si>
     <t xml:space="preserve">B07K48HMQ3</t>
   </si>
   <si>
@@ -2124,6 +1785,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/61Wo0pUVM6L.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-AU': 'English (AU)', 'en-CA': 'English (CA)', 'en-GB': 'English (GB)', 'en-IN': 'English (IN)', 'en-US': 'English (US)', 'de-DE': 'German (DE)'}</t>
   </si>
   <si>
     <t xml:space="preserve">{'en-IN': 'crypto tracker', 'en-AU': 'crypto tracker', 'de-DE': 'krypto tracker', 'en-US': 'crypto tracker', 'en-CA': 'crypto tracker', 'en-GB': 'crypto tracker'}</t>
@@ -2189,45 +1853,6 @@
     <t xml:space="preserve">{'en-US': 'Mayfield-Hillcrest Patch'}</t>
   </si>
   <si>
-    <t xml:space="preserve">B0784V8HW6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Favorite Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JimBrandt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': ['”Alexa open favorite person”', '”Alexa ask favorite person who is your favorite today”', '”Alexa ask favorite person to add Cinderella as favorite”']}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/614bZRjnZ5L.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'favorite person'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This simple fun skill picks a favorite person of the day. It can pick from its own favorites (like Santa) or from your suggestions. A suggestion can also include why someone should be a favorite. To get started, enable the skill and say 'open Favorite Person'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'Pick a favorite person of the day'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pick a favorite person of the day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-19T08:16:59Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-18T06:06:10Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'Favorite Person'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'0': 'MJV13YRDEKCAW'}</t>
-  </si>
-  <si>
     <t xml:space="preserve">B08WJR1647</t>
   </si>
   <si>
@@ -2765,45 +2390,6 @@
     <t xml:space="preserve">{'en-IN': 'Fairway Foods 9675', 'en-AU': 'Fairway Foods 9675', 'en-CA': 'Fairway Foods 9675', 'en-US': 'Fairway Foods 9675', 'en-GB': 'Fairway Foods 9675'}</t>
   </si>
   <si>
-    <t xml:space="preserve">B01MG785AY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">River Gauge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew Bergstrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': ['”Alexa start River Gauge”', '”water level info for the Kettle river”', '”list rivers”']}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/81V1xBvxmoL.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'river gauge'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">River Gauge will tell you the current water level of many popular paddling rivers around Minnesota, including some in Iowa and Wisconsin.  It uses the USGS stream gauge information to tell you the current river height and/or CFS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'River Gauge will give the water level of many Midwest rivers popular with canoeists and kayakers.'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">River Gauge will give the water level of many Midwest rivers popular with canoeists and kayakers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-11-02T14:35:19Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-10-31T04:19:38Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'en-US': 'River Gauge'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'0': 'MIBGVMTCY6BNV'}</t>
-  </si>
-  <si>
     <t xml:space="preserve">B01N7MEK2Y</t>
   </si>
   <si>
@@ -3140,6 +2726,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/41mjOUP+wTL.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart Home</t>
   </si>
   <si>
     <t xml:space="preserve">{'de-DE': 'https://www.controltronic.de/datenschutzerklaerung/', 'en-US': 'https://www.controltronic.com/privacy-statement/'}</t>
@@ -4396,6 +3985,425 @@
   <si>
     <t xml:space="preserve">{'en-US': 'Grace Chapel'}</t>
   </si>
+  <si>
+    <t xml:space="preserve">B07GZL8G1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build A PC Sales News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': ['”Alexa open build a PC sales”', '”Alexa open build a PC sales and get gpu news”', '”Alexa open build a PC sales and get the sales”']}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/41cls8PoUEL.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': 'build a p. c. sales'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An unofficial skill for checking the hot posts on r/buildapcsales.
+Open the skill by saying "Open build a PC sales"
+Get the hottest post for the following types by saying "get the sales"
+- SSD, HDD, Motherboard, Case, CPU, GPU, RAM
+Get a specific post type by saying "get {TypeName} news"
+This skill uses Reddit's built in functionality to convert a search into an RSS feed, then parses that feed to give you the title. Only the first two posts created in the last 24 hours will be shown, and posts *should* be sorted by Reddit's hotness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': 'A simple skill for checking the hot posts on r/buildapcsales.'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A simple skill for checking the hot posts on r/buildapcsales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-31T07:01:41Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-30T15:47:48Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': 'Build A PC Sales News'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'0': 'M12ELUCE0RH13K'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B06XBZDYV4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooking Temperature Buddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hin Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-CA': ['”Alexa, open Cooking Temperature Buddy”', '”Alexa, ask Cooking Temperature Buddy for steak”', '”Stop”'], 'en-US': ['”Alexa, open Cooking Temperature Buddy”', '”Alexa, ask Cooking Temperature Buddy for steak”', '”Stop”'], 'en-IN': ['”Alexa, open Cooking Temperature Buddy”', '”Alexa, ask Cooking Temperature Buddy for steak”', '”Stop”'], 'en-AU': ['”Alexa, open Cooking Temperature Buddy”', '”Alexa, ask Cooking Temperature Buddy for steak”', '”Stop”'], 'en-GB': ['”Alexa, open Cooking Temperature Buddy”', '”Alexa, ask Cooking Temperature Buddy for steak”', '”Stop”']}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/51WJLqIMQ0L.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'cooking temperature buddy', 'en-AU': 'cooking temperature buddy', 'en-US': 'cooking temperature buddy', 'en-CA': 'cooking temperature buddy', 'en-GB': 'cooking temperature buddy'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This skill provides you the internal temperature needed to cook a range of meats.  You can ask for the following type of meats:
+- Chicken
+- Turkey
+- Duck
+- Goose
+- Pork
+- Lamb
+- Steak
+- Ground beef, pork, lamb, chicken, or turkey
+- Eggs
+- Fish
+- Shrimp
+- Lobster
+- Crab
+- Clams
+- Oysters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'This skill provides you the internal temperature needed to cook a range of meats (chicken, ground beef, steak, lamb, etc).', 'en-AU': 'This skill provides you the internal temperature needed to cook a range of meats (chicken, ground beef, steak, lamb, etc).', 'en-CA': 'This skill provides you the internal temperature needed to cook a range of meats (chicken, ground beef, steak, lamb, etc).', 'en-US': 'This skill provides you the internal temperature needed to cook a range of meats (chicken, ground beef, steak, lamb, etc).', 'en-GB': 'This skill provides you the internal temperature needed to cook a range of meats (chicken, ground beef, steak, lamb, etc).'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This skill provides you the internal temperature needed to cook a range of meats (chicken, ground beef, steak, lamb, etc).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-02T13:32:04Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-02T07:03:21Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'Cooking Temperature Buddy', 'en-AU': 'Cooking Temperature Buddy', 'en-CA': 'Cooking Temperature Buddy', 'en-US': 'Cooking Temperature Buddy', 'en-GB': 'Cooking Temperature Buddy'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'0': 'M2CE2M5DJ14KPS'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B06ZY5JJ6M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoga Teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">softvan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-CA': ['”Alexa ask yoga teacher”', '”my level is beginner”', '”okay”'], 'en-US': ['”Alexa ask yoga teacher”', '”my level is beginner”', '”okay”'], 'en-IN': ['”Alexa ask yoga teacher”', '”my level is beginner”', '”okay”'], 'en-GB': ['”Alexa ask yoga teacher”', '”my level is beginner”', '”okay”']}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/51N+vvPab8L.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-CA': 'English (CA)', 'en-GB': 'English (GB)', 'en-IN': 'English (IN)', 'en-US': 'English (US)'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'yoga teacher', 'en-US': 'yoga teacher', 'en-CA': 'yoga teacher', 'en-GB': 'yoga teacher'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoga Teacher Skill is your personal yoga teacher. This Alexa Skill guides you through based on your level it will help you to learn yoga. This skill contains beginner , intermediate  and expert tutorial of yoga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'This skill for leaning yoga. you can learn some basic yoga from this skill.', 'en-CA': 'This skill for leaning yoga. you can learn some basic yoga from this skill.', 'en-US': 'This skill for leaning yoga. you can learn some basic yoga from this skill.', 'en-GB': 'This skill for leaning yoga. you can learn some basic yoga from this skill.'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This skill for leaning yoga. you can learn some basic yoga from this skill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-18T07:05:13Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-17T06:34:36Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'Yoga Teacher', 'en-CA': 'Yoga Teacher', 'en-US': 'Yoga Teacher', 'en-GB': 'Yoga Teacher'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'0': 'M29ANYCENDY47P'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B073XLCTQD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOST Geek Quiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VoxLR8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-CA': ['”Alexa, start lost geek.”', '”Alexa, launch lost geek.”', '”Alexa, play lost geek.”'], 'en-US': ['”Alexa, start lost geek.”', '”Alexa, launch lost geek.”', '”Alexa, play lost geek.”'], 'en-IN': ['”Alexa, start lost geek.”', '”Alexa, launch lost geek.”', '”Alexa, play lost geek.”'], 'en-AU': ['”Alexa, start lost geek.”', '”Alexa, launch lost geek.”', '”Alexa, play lost geek.”'], 'en-GB': ['”Alexa, start lost geek.”', '”Alexa, open lost geek.”', '”Alexa, launch lost geek.”']}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/81MN-Gw+7ML.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'lost geek', 'en-AU': 'lost geek', 'en-US': 'lost geek', 'en-CA': 'lost geek', 'en-GB': 'lost geek'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A quiz to test the most dedicated LOST geeks, **Spoiler Warning** the questions in this quiz refer to all six seasons of LOST.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'An unofficial quiz for ABCs LOST.', 'en-AU': 'An unofficial quiz for ABCs LOST.', 'en-CA': 'An unofficial quiz for ABCs LOST.', 'en-US': 'An unofficial quiz for ABCs LOST.', 'en-GB': 'An unofficial quiz for ABCs LOST.'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An unofficial quiz for ABCs LOST.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-15T12:24:04Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-14T09:40:23Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'LOST Geek Quiz', 'en-AU': 'LOST Geek Quiz', 'en-CA': 'LOST Geek Quiz', 'en-US': 'LOST Geek Quiz', 'en-GB': 'LOST Geek Quiz'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'0': 'M2LT9YV2G0I0V9'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B06XDG18YZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel Dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Wozniak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-CA': ['”Alexa, ask Travel Dates for my departure date of June 5th, 2017”', '”Alexa, ask Travel Dates for a departure of August 8th, 2017”', '”Alexa, ask Travel Dates for November 5th”'], 'en-US': ['”Alexa, ask Travel Dates for my departure date of June 5th, 2017”', '”Alexa, ask Travel Dates for a departure of August 8th, 2017”', '”Alexa, ask Travel Dates for November 5th”'], 'en-IN': ['”Alexa, ask Travel Dates for my departure date of June 5th, 2017”', '”Alexa, ask Travel Dates for a departure of August 8th, 2017”', '”Alexa, ask Travel Dates for November 5th”'], 'en-AU': ['”Alexa, ask Travel Dates for my departure date of June 5th, 2017”', '”Alexa, ask Travel Dates for a departure of August 8th, 2017”', '”Alexa, ask Travel Dates for November 5th”'], 'en-GB': ['”Alexa, ask Travel Dates for my departure date of June 5th, 2017”', '”Alexa, ask Travel Dates for a departure of August 8th, 2017”', '”Alexa, ask Travel Dates for November 5th”']}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/41O887tCsQL.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'travel dates', 'en-AU': 'travel dates', 'en-US': 'travel dates', 'en-CA': 'travel dates', 'en-GB': 'travel dates'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This skill is designed to be used by travel agents or those using a travel agent or anyone traveling to the magical Orlando destination. To use, just tell Travel Dates your departure date and you will receive the date you can start booking dining, FastPasses and your final payment date.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'Use Travel Dates to quickly receive the key dates for dining, fast passes and final trip payment.', 'en-AU': 'Use Travel Dates to quickly receive the key dates for dining, fast passes and final trip payment.', 'en-CA': 'Use Travel Dates to quickly receive the key dates for dining, fast passes and final trip payment.', 'en-US': 'Use Travel Dates to quickly receive the key dates for dining, fast passes and final trip payment.', 'en-GB': 'Use Travel Dates to quickly receive the key dates for dining, fast passes and final trip payment.'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Travel Dates to quickly receive the key dates for dining, fast passes and final trip payment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-06T11:31:59Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-06T03:42:18Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'Travel Dates', 'en-AU': 'Travel Dates', 'en-CA': 'Travel Dates', 'en-US': 'Travel Dates', 'en-GB': 'Travel Dates'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'0': 'M2N27YFFFD37SV'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B07GTYLPLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pico y Placa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': ['”Alexa Run Pico e. Placa”', '”Alexa ask pico e. placa about monday”', '”Alexa ask pico e. placa about three”'], 'en-IN': ['”Alexa run pico e. Placa”', '”Alexa ask pico e. placa about three”', '”Alexa ask pico e. placa about Monday”'], 'en-GB': ['”Alexa run pico e. Placa”', '”Alexa ask pico e. placa about three”', '”Alexa ask pico e. placa about Monday”']}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/615i8w8+CHL.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'pico e. placa', 'en-GB': 'pico e. placa', 'en-US': 'pico e. placa'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Medellin - Colombia,  based on the car's plate last number, people are not allowed to take out their vehicules during certain times, from Monday to Friday. This Skill allows Medellin Citizens to know which numbers are restricted on each day of the week, or to ask about a number in order to know when it is restricted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'Helps people from Medellin Colombia to know which Pico y Placa restriction is on each day.', 'en-GB': 'Helps people from Medellin Colombia to know which Pico y Placa restriction is on each day.', 'en-US': 'Helps people from Medellin Colombia to know which Pico y Placa restriction is on each day.'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helps people from Medellin Colombia to know which Pico y Placa restriction is on each day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-26T08:21:59Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-24T18:26:26Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'Pico y Placa', 'en-GB': 'Pico y Placa', 'en-US': 'Pico y Placa'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'0': 'M1Y99LJZ2MAX2J'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B07LBT9FZY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Rock of Northeast Arkansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': ['”Alexa, open the rock of northeast arkansas”', '”Alexa, start the rock of northeast arkansas”', '”Alexa, launch the rock of northeast arkansas”']}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/410CbLXjR+L.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': 'the rock of northeast arkansas'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get information about The Rock of Northeast Arkansas in Jonesboro, AR.
+i.e. Service Times, Location, Phone Number and more.  
+This Alexa Skill was built compliments of InfoByVoice.com 
+Contact us at Skills@InfoByVoice.com and we can build an Alexa Skill for your church, business or personal needs. 
+This skill was built with love by VoiceApps.com.  Visit us to create your own skill in minutes!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': 'We hope you enjoy using The The Rock of Northeast Arkansas of Jonesboro, AR Alexa Skill.'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We hope you enjoy using The The Rock of Northeast Arkansas of Jonesboro, AR Alexa Skill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-13T10:57:50Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-24T20:39:45Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': 'The Rock of Northeast Arkansas'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B07JHR16D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snack suggestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamin Dahrooge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': ['”Alexa open snack suggestion.”', '”Alexa ask snack suggestion for a yummy snack.”', '”Alexa ask snack suggestion for a healthy snack.”']}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/61R2WgkrlJL.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': 'snack suggestion'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snack suggestion can help you if you need a quick snack idea when you're hungry. The skill has a large library of snack ideas, both in the "healthy" and "yummy" categories, along with a few quirky jokes about our favorite foods.
+To start, just say "Alexa, open snack suggestion". 
+You can also ask for a specific type, either yummy or healthy like this: "Alexa, ask snack suggestion for a yummy snack".
+Disclaimer: This skill may make you hungry. 
+Built for: RAM Hacks Alexa Skill Initiative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': 'Need help thinking of a good snack? Use this skill to help you.'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need help thinking of a good snack? Use this skill to help you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-19T04:51:40Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-18T01:13:29Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': 'Snack suggestion'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'0': 'M5C0M5XFXZPFX'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B07ZH758KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful landscapes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobias Herber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': ['”Alexa, open beautiful landscapes”']}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/71j7K5POynL.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': 'beautiful landscapes'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take the fatigue out of your daily routine, by enjoying our amazing landscapes. This skill shows you amazing landscapes from all over the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': 'Enhance your day with one of our incredible landscapes.'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhance your day with one of our incredible landscapes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-23T11:06:14Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-23T08:44:59Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-US': 'Beautiful landscapes'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'0': 'M2P2QHA6U3HOB6'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B07XX7Q45H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hogwarts Sorting Hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millstones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-CA': ['”Alexa, open The Hogwarts Sorting Hat”', '”Alexa, launch The Hogwarts Sorting Hat”'], 'en-US': ['”Alexa, open The Hogwarts Sorting Hat”', '”Alexa, launch The Hogwarts Sorting Hat”'], 'en-IN': ['”Alexa, open The Hogwarts Sorting Hat”', '”Alexa, launch The Hogwarts Sorting Hat”'], 'en-AU': ['”Alexa, open The Hogwarts Sorting Hat”', '”Alexa, launch The Hogwarts Sorting Hat”'], 'en-GB': ['”Alexa, open The Hogwarts Sorting Hat”', '”Alexa, launch The Hogwarts Sorting Hat”']}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://images-na.ssl-images-amazon.com/images/I/71iRzbGplLL.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'the hogwarts sorting hat', 'en-AU': 'the hogwarts sorting hat', 'en-US': 'the hogwarts sorting hat', 'en-CA': 'the hogwarts sorting hat', 'en-GB': 'the hogwarts sorting hat'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Want to know what house you would be in at Hogwarts? Would you be in Gryffindor, Slytherin, Ravenclaw or Hufflepuff?
+Simply ask The Hogwarts Sorting Hat and it will tell you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'Want to know what house you would be in at Hogwarts? Simply ask The Hogwarts Sorting Hat and it will tell you.', 'en-AU': 'Want to know what house you would be in at Hogwarts? Simply ask The Hogwarts Sorting Hat and it will tell you.', 'en-CA': 'Want to know what house you would be in at Hogwarts? Simply ask The Hogwarts Sorting Hat and it will tell you.', 'en-US': 'Want to know what house you would be in at Hogwarts? Simply ask The Hogwarts Sorting Hat and it will tell you.', 'en-GB': 'Want to know what house you would be in at Hogwarts? Simply ask The Hogwarts Sorting Hat and it will tell you.'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Want to know what house you would be in at Hogwarts? Simply ask The Hogwarts Sorting Hat and it will tell you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-15T11:45:24Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-13T22:31:29Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'en-IN': 'The Hogwarts Sorting Hat', 'en-AU': 'The Hogwarts Sorting Hat', 'en-CA': 'The Hogwarts Sorting Hat', 'en-US': 'The Hogwarts Sorting Hat', 'en-GB': 'The Hogwarts Sorting Hat'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'0': 'M36FD55XI7CE70'}</t>
+  </si>
 </sst>
 </file>
 
@@ -4537,10 +4545,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W101"/>
+  <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I76" activeCellId="0" sqref="I76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B110" activeCellId="0" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5922,28 +5930,28 @@
         <v>4</v>
       </c>
       <c r="H20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="J20" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="J20" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="0" t="s">
+      <c r="O20" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="P20" s="0" t="s">
         <v>255</v>
@@ -5978,7 +5986,7 @@
         <v>263</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0</v>
@@ -5993,63 +6001,63 @@
         <v>4</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>265</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>266</v>
+        <v>10</v>
       </c>
       <c r="O21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="P21" s="0" t="s">
+      <c r="Q21" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="Q21" s="0" t="s">
+      <c r="R21" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="R21" s="0" t="s">
+      <c r="S21" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="S21" s="0" t="s">
+      <c r="T21" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="T21" s="0" t="s">
+      <c r="U21" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="U21" s="0" t="s">
-        <v>273</v>
-      </c>
       <c r="V21" s="0" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>178</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0</v>
@@ -6064,63 +6072,63 @@
         <v>4</v>
       </c>
       <c r="H22" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="Q22" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="J22" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="0" t="s">
+      <c r="R22" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="N22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="0" t="s">
+      <c r="S22" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="Q22" s="0" t="s">
+      <c r="T22" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="R22" s="0" t="s">
+      <c r="U22" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="S22" s="0" t="s">
+      <c r="V22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="W22" s="0" t="s">
         <v>283</v>
-      </c>
-      <c r="T22" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="U22" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="V22" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="W22" s="0" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>286</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>288</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0</v>
@@ -6135,22 +6143,22 @@
         <v>4</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>107</v>
+        <v>287</v>
       </c>
       <c r="I23" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="J23" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="J23" s="0" t="s">
-        <v>93</v>
-      </c>
       <c r="K23" s="0" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>4</v>
+        <v>290</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>10</v>
@@ -6159,39 +6167,39 @@
         <v>10</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>0</v>
@@ -6206,13 +6214,13 @@
         <v>4</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>302</v>
+        <v>181</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>166</v>
@@ -6224,51 +6232,51 @@
         <v>303</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>10</v>
+        <v>304</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P24" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="V24" s="0" t="s">
         <v>60</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>313</v>
+        <v>178</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>3</v>
@@ -6277,63 +6285,63 @@
         <v>4</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>315</v>
+        <v>180</v>
       </c>
       <c r="J25" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="N25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="L25" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="N25" s="0" t="s">
+      <c r="Q25" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="O25" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P25" s="2" t="s">
+      <c r="R25" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="Q25" s="0" t="s">
+      <c r="S25" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="R25" s="0" t="s">
+      <c r="T25" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="S25" s="0" t="s">
+      <c r="U25" s="0" t="s">
         <v>322</v>
-      </c>
-      <c r="T25" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="U25" s="0" t="s">
-        <v>324</v>
       </c>
       <c r="V25" s="0" t="s">
         <v>60</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>325</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0</v>
@@ -6348,63 +6356,63 @@
         <v>4</v>
       </c>
       <c r="H26" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="R26" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="S26" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="J26" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="0" t="s">
+      <c r="T26" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="N26" s="0" t="s">
+      <c r="U26" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="O26" s="0" t="s">
+      <c r="V26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="W26" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q26" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="R26" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="S26" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="T26" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="U26" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="V26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="W26" s="0" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>178</v>
+        <v>336</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0</v>
@@ -6419,63 +6427,63 @@
         <v>4</v>
       </c>
       <c r="H27" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q27" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="I27" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="0" t="s">
+      <c r="R27" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="N27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P27" s="0" t="s">
+      <c r="S27" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="Q27" s="0" t="s">
+      <c r="T27" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="R27" s="0" t="s">
+      <c r="U27" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="S27" s="0" t="s">
+      <c r="V27" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="T27" s="0" t="s">
+      <c r="W27" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="U27" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="V27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="W27" s="0" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>352</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>353</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>0</v>
@@ -6490,22 +6498,22 @@
         <v>4</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>107</v>
+        <v>353</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>354</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>8</v>
+        <v>355</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>4</v>
+        <v>356</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>10</v>
@@ -6514,39 +6522,39 @@
         <v>10</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="R28" s="0" t="s">
         <v>357</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="V28" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>0</v>
@@ -6561,16 +6569,16 @@
         <v>4</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>367</v>
+        <v>8</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>4</v>
@@ -6582,28 +6590,28 @@
         <v>369</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="0" t="s">
         <v>370</v>
       </c>
+      <c r="P29" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="Q29" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>376</v>
+        <v>60</v>
       </c>
       <c r="W29" s="0" t="s">
         <v>377</v>
@@ -6620,10 +6628,10 @@
         <v>380</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>3</v>
@@ -6638,10 +6646,10 @@
         <v>382</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>4</v>
@@ -6655,40 +6663,40 @@
       <c r="O30" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="P30" s="0" t="s">
+      <c r="P30" s="2" t="s">
         <v>385</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>386</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>0</v>
@@ -6703,13 +6711,13 @@
         <v>4</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>394</v>
+        <v>36</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>395</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>8</v>
@@ -6718,51 +6726,51 @@
         <v>4</v>
       </c>
       <c r="M31" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N31" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="N31" s="0" t="s">
+      <c r="O31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="O31" s="0" t="s">
+      <c r="Q31" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="R31" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="Q31" s="0" t="s">
+      <c r="S31" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="R31" s="0" t="s">
+      <c r="T31" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="S31" s="0" t="s">
+      <c r="U31" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="T31" s="0" t="s">
+      <c r="V31" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="W31" s="0" t="s">
         <v>403</v>
-      </c>
-      <c r="U31" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="V31" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="W31" s="0" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>408</v>
-      </c>
       <c r="D32" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>1</v>
@@ -6774,13 +6782,13 @@
         <v>4</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>8</v>
@@ -6789,15 +6797,15 @@
         <v>4</v>
       </c>
       <c r="M32" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="O32" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="N32" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P32" s="0" t="s">
+      <c r="P32" s="2" t="s">
         <v>412</v>
       </c>
       <c r="Q32" s="0" t="s">
@@ -6816,7 +6824,7 @@
         <v>417</v>
       </c>
       <c r="V32" s="0" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W32" s="0" t="s">
         <v>418</v>
@@ -6833,10 +6841,10 @@
         <v>421</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>3</v>
@@ -6851,43 +6859,43 @@
         <v>423</v>
       </c>
       <c r="J33" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="K33" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="0" t="s">
+      <c r="N33" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="N33" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="O33" s="0" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="W33" s="0" t="s">
         <v>432</v>
@@ -6904,10 +6912,10 @@
         <v>435</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>3</v>
@@ -6916,13 +6924,13 @@
         <v>4</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>36</v>
+        <v>436</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>8</v>
@@ -6931,54 +6939,54 @@
         <v>4</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>4</v>
+        <v>438</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>437</v>
+        <v>10</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>10</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="S34" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>17</v>
+        <v>445</v>
       </c>
       <c r="W34" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>3</v>
@@ -6987,13 +6995,13 @@
         <v>4</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>448</v>
+        <v>36</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>449</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>8</v>
@@ -7002,48 +7010,48 @@
         <v>4</v>
       </c>
       <c r="M35" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q35" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="N35" s="0" t="s">
+      <c r="R35" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="S35" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="O35" s="0" t="s">
+      <c r="T35" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="P35" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q35" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="R35" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="S35" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="T35" s="0" t="s">
-        <v>457</v>
-      </c>
       <c r="U35" s="0" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="V35" s="0" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="W35" s="0" t="s">
-        <v>459</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>0</v>
@@ -7058,69 +7066,69 @@
         <v>4</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>463</v>
+        <v>36</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>383</v>
+        <v>8</v>
       </c>
       <c r="L36" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>466</v>
+        <v>10</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>468</v>
+        <v>10</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>457</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="S36" s="0" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="T36" s="0" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="V36" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W36" s="0" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>3</v>
@@ -7129,63 +7137,63 @@
         <v>4</v>
       </c>
       <c r="H37" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="S37" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="T37" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="J37" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M37" s="0" t="s">
+      <c r="U37" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="N37" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O37" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P37" s="0" t="s">
+      <c r="V37" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="W37" s="0" t="s">
         <v>480</v>
-      </c>
-      <c r="Q37" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="R37" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="S37" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="T37" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="U37" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="V37" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="W37" s="0" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>0</v>
@@ -7200,69 +7208,69 @@
         <v>4</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>36</v>
+        <v>483</v>
       </c>
       <c r="I38" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="T38" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="U38" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="J38" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L38" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M38" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="N38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P38" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q38" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="R38" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="S38" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="T38" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="U38" s="0" t="s">
-        <v>491</v>
-      </c>
       <c r="V38" s="0" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W38" s="0" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>3</v>
@@ -7271,13 +7279,13 @@
         <v>4</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>24</v>
+        <v>289</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>8</v>
@@ -7286,7 +7294,7 @@
         <v>4</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="N39" s="0" t="s">
         <v>10</v>
@@ -7294,40 +7302,40 @@
       <c r="O39" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="P39" s="0" t="s">
+      <c r="P39" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="R39" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="S39" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="Q39" s="0" t="s">
+      <c r="T39" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="R39" s="0" t="s">
+      <c r="U39" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="S39" s="0" t="s">
+      <c r="V39" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="W39" s="0" t="s">
         <v>503</v>
-      </c>
-      <c r="T39" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="U39" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="V39" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="W39" s="0" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>0</v>
@@ -7342,30 +7350,30 @@
         <v>4</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>36</v>
+        <v>507</v>
       </c>
       <c r="I40" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="J40" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="N40" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="P40" s="0" t="s">
+      <c r="P40" s="2" t="s">
         <v>511</v>
       </c>
       <c r="Q40" s="0" t="s">
@@ -7384,7 +7392,7 @@
         <v>516</v>
       </c>
       <c r="V40" s="0" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W40" s="0" t="s">
         <v>517</v>
@@ -7398,7 +7406,7 @@
         <v>519</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>520</v>
+        <v>178</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>0</v>
@@ -7413,63 +7421,63 @@
         <v>4</v>
       </c>
       <c r="H41" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="I41" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="I41" s="0" t="s">
+      <c r="J41" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="J41" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="0" t="s">
+      <c r="N41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="N41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O41" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="P41" s="2" t="s">
+      <c r="Q41" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="Q41" s="0" t="s">
+      <c r="R41" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="R41" s="0" t="s">
+      <c r="S41" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="S41" s="0" t="s">
+      <c r="T41" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="T41" s="0" t="s">
+      <c r="U41" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="U41" s="0" t="s">
-        <v>529</v>
-      </c>
       <c r="V41" s="0" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W41" s="0" t="s">
-        <v>530</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>531</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>533</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>0</v>
@@ -7484,69 +7492,69 @@
         <v>4</v>
       </c>
       <c r="H42" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="I42" s="0" t="s">
+      <c r="L42" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="J42" s="0" t="s">
+      <c r="N42" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P42" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="K42" s="0" t="s">
+      <c r="Q42" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="L42" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="0" t="s">
+      <c r="R42" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="N42" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O42" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P42" s="0" t="s">
+      <c r="S42" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="Q42" s="0" t="s">
+      <c r="T42" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="R42" s="0" t="s">
+      <c r="U42" s="0" t="s">
         <v>541</v>
-      </c>
-      <c r="S42" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="T42" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="U42" s="0" t="s">
-        <v>544</v>
       </c>
       <c r="V42" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W42" s="0" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>548</v>
+        <v>394</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>3</v>
@@ -7555,63 +7563,63 @@
         <v>4</v>
       </c>
       <c r="H43" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="R43" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="S43" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="T43" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="J43" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="K43" s="0" t="s">
+      <c r="U43" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="L43" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="M43" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="N43" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="O43" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q43" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="R43" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="S43" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="T43" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="U43" s="0" t="s">
-        <v>561</v>
-      </c>
       <c r="V43" s="0" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="W43" s="0" t="s">
-        <v>562</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>178</v>
+        <v>554</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>0</v>
@@ -7626,63 +7634,63 @@
         <v>4</v>
       </c>
       <c r="H44" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="N44" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="R44" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="S44" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="T44" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="U44" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="V44" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="W44" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="N44" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O44" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P44" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q44" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="R44" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="S44" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="T44" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="U44" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="V44" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="W44" s="0" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>0</v>
@@ -7697,13 +7705,13 @@
         <v>4</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>302</v>
+        <v>152</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>8</v>
@@ -7712,7 +7720,7 @@
         <v>4</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="N45" s="0" t="s">
         <v>10</v>
@@ -7720,46 +7728,46 @@
       <c r="O45" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="P45" s="2" t="s">
-        <v>579</v>
+      <c r="P45" s="0" t="s">
+        <v>572</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="T45" s="0" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="U45" s="0" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="V45" s="0" t="s">
-        <v>376</v>
+        <v>17</v>
       </c>
       <c r="W45" s="0" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>3</v>
@@ -7768,69 +7776,69 @@
         <v>4</v>
       </c>
       <c r="H46" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="T46" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="U46" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="J46" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K46" s="0" t="s">
+      <c r="V46" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="W46" s="0" t="s">
         <v>591</v>
-      </c>
-      <c r="L46" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="N46" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O46" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q46" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="R46" s="0" t="s">
-        <v>595</v>
-      </c>
-      <c r="S46" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="T46" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="U46" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="V46" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="W46" s="0" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>178</v>
+        <v>594</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>3</v>
@@ -7839,69 +7847,69 @@
         <v>4</v>
       </c>
       <c r="H47" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="O47" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="T47" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="I47" s="0" t="s">
+      <c r="U47" s="0" t="s">
         <v>603</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="L47" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="N47" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O47" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P47" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q47" s="0" t="s">
-        <v>606</v>
-      </c>
-      <c r="R47" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="S47" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="T47" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="U47" s="0" t="s">
-        <v>610</v>
       </c>
       <c r="V47" s="0" t="s">
         <v>60</v>
       </c>
       <c r="W47" s="0" t="s">
-        <v>189</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>3</v>
@@ -7910,69 +7918,69 @@
         <v>4</v>
       </c>
       <c r="H48" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="R48" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="S48" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="I48" s="0" t="s">
+      <c r="T48" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="J48" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="K48" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="0" t="s">
+      <c r="U48" s="0" t="s">
         <v>616</v>
-      </c>
-      <c r="N48" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O48" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="P48" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q48" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="R48" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="S48" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="T48" s="0" t="s">
-        <v>621</v>
-      </c>
-      <c r="U48" s="0" t="s">
-        <v>622</v>
       </c>
       <c r="V48" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W48" s="0" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>3</v>
@@ -7981,63 +7989,63 @@
         <v>4</v>
       </c>
       <c r="H49" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="R49" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="I49" s="0" t="s">
+      <c r="S49" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="J49" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="K49" s="0" t="s">
+      <c r="T49" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="L49" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="0" t="s">
+      <c r="U49" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="O49" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P49" s="2" t="s">
+      <c r="V49" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="W49" s="0" t="s">
         <v>631</v>
-      </c>
-      <c r="Q49" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="R49" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="S49" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="T49" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="U49" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="V49" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="W49" s="0" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>0</v>
@@ -8052,63 +8060,63 @@
         <v>4</v>
       </c>
       <c r="H50" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="R50" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="S50" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="T50" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="U50" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="V50" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="W50" s="0" t="s">
         <v>641</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="N50" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O50" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q50" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="R50" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="S50" s="0" t="s">
-        <v>647</v>
-      </c>
-      <c r="T50" s="0" t="s">
-        <v>648</v>
-      </c>
-      <c r="U50" s="0" t="s">
-        <v>649</v>
-      </c>
-      <c r="V50" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="W50" s="0" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>435</v>
+        <v>644</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>0</v>
@@ -8123,69 +8131,69 @@
         <v>4</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>36</v>
+        <v>645</v>
       </c>
       <c r="I51" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="R51" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="S51" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="J51" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M51" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="N51" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="O51" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P51" s="0" t="s">
+      <c r="T51" s="0" t="s">
         <v>654</v>
       </c>
-      <c r="Q51" s="0" t="s">
+      <c r="U51" s="0" t="s">
         <v>655</v>
       </c>
-      <c r="R51" s="0" t="s">
+      <c r="V51" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="W51" s="0" t="s">
         <v>656</v>
-      </c>
-      <c r="S51" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="T51" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="U51" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="V51" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="W51" s="0" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>3</v>
@@ -8194,13 +8202,13 @@
         <v>4</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>8</v>
@@ -8209,48 +8217,48 @@
         <v>4</v>
       </c>
       <c r="M52" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q52" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="R52" s="0" t="s">
         <v>665</v>
       </c>
-      <c r="N52" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O52" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P52" s="0" t="s">
+      <c r="S52" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="Q52" s="0" t="s">
+      <c r="T52" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="R52" s="0" t="s">
+      <c r="U52" s="0" t="s">
         <v>668</v>
-      </c>
-      <c r="S52" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="T52" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="U52" s="0" t="s">
-        <v>671</v>
       </c>
       <c r="V52" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W52" s="0" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>0</v>
@@ -8265,69 +8273,69 @@
         <v>4</v>
       </c>
       <c r="H53" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q53" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="R53" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="I53" s="0" t="s">
+      <c r="S53" s="0" t="s">
         <v>677</v>
       </c>
-      <c r="J53" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="K53" s="0" t="s">
+      <c r="T53" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="L53" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M53" s="0" t="s">
+      <c r="U53" s="0" t="s">
         <v>679</v>
-      </c>
-      <c r="N53" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O53" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q53" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="R53" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="S53" s="0" t="s">
-        <v>683</v>
-      </c>
-      <c r="T53" s="0" t="s">
-        <v>684</v>
-      </c>
-      <c r="U53" s="0" t="s">
-        <v>685</v>
       </c>
       <c r="V53" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W53" s="0" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>3</v>
@@ -8336,63 +8344,63 @@
         <v>4</v>
       </c>
       <c r="H54" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q54" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="R54" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="S54" s="0" t="s">
         <v>690</v>
       </c>
-      <c r="I54" s="0" t="s">
+      <c r="T54" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="J54" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="0" t="s">
+      <c r="U54" s="0" t="s">
         <v>692</v>
-      </c>
-      <c r="N54" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O54" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="P54" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="Q54" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="R54" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="S54" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="T54" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="U54" s="0" t="s">
-        <v>698</v>
       </c>
       <c r="V54" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W54" s="0" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>5</v>
@@ -8407,13 +8415,13 @@
         <v>4</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>36</v>
+        <v>697</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>8</v>
@@ -8422,54 +8430,54 @@
         <v>4</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>4</v>
+        <v>699</v>
       </c>
       <c r="N55" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q55" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="R55" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="S55" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="O55" s="0" t="s">
+      <c r="T55" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="P55" s="0" t="s">
+      <c r="U55" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="Q55" s="0" t="s">
+      <c r="V55" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="W55" s="0" t="s">
         <v>707</v>
-      </c>
-      <c r="R55" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="S55" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="T55" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="U55" s="0" t="s">
-        <v>711</v>
-      </c>
-      <c r="V55" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="W55" s="0" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>715</v>
+        <v>178</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>3</v>
@@ -8478,63 +8486,63 @@
         <v>4</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>107</v>
+        <v>710</v>
       </c>
       <c r="I56" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q56" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="R56" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="S56" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="T56" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="J56" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L56" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M56" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="N56" s="0" t="s">
+      <c r="U56" s="0" t="s">
         <v>717</v>
       </c>
-      <c r="O56" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="P56" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q56" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="R56" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="S56" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="T56" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="U56" s="0" t="s">
-        <v>724</v>
-      </c>
       <c r="V56" s="0" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="W56" s="0" t="s">
-        <v>725</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>728</v>
+        <v>178</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>0</v>
@@ -8549,13 +8557,13 @@
         <v>4</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>730</v>
+        <v>265</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>166</v>
@@ -8564,7 +8572,7 @@
         <v>4</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="N57" s="0" t="s">
         <v>10</v>
@@ -8572,46 +8580,46 @@
       <c r="O57" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="2" t="s">
-        <v>732</v>
+      <c r="P57" s="0" t="s">
+        <v>722</v>
       </c>
       <c r="Q57" s="0" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="R57" s="0" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="S57" s="0" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="T57" s="0" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="U57" s="0" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="V57" s="0" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W57" s="0" t="s">
-        <v>738</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>741</v>
+        <v>394</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>3</v>
@@ -8620,63 +8628,63 @@
         <v>4</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>742</v>
+        <v>36</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>744</v>
+        <v>136</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="L58" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>745</v>
+        <v>4</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>10</v>
+        <v>396</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>10</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="Q58" s="0" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="R58" s="0" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="S58" s="0" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="T58" s="0" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="U58" s="0" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="V58" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W58" s="0" t="s">
-        <v>752</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>755</v>
+        <v>659</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>0</v>
@@ -8691,13 +8699,13 @@
         <v>4</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>757</v>
+        <v>661</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="K59" s="0" t="s">
         <v>8</v>
@@ -8706,48 +8714,48 @@
         <v>4</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="N59" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>579</v>
+        <v>741</v>
       </c>
       <c r="Q59" s="0" t="s">
-        <v>580</v>
+        <v>742</v>
       </c>
       <c r="R59" s="0" t="s">
-        <v>581</v>
+        <v>743</v>
       </c>
       <c r="S59" s="0" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="T59" s="0" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="U59" s="0" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="V59" s="0" t="s">
-        <v>376</v>
+        <v>17</v>
       </c>
       <c r="W59" s="0" t="s">
-        <v>762</v>
+        <v>669</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>0</v>
@@ -8762,63 +8770,63 @@
         <v>4</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>768</v>
+        <v>240</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="L60" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="N60" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>770</v>
+        <v>11</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="Q60" s="0" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="R60" s="0" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="S60" s="0" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="T60" s="0" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="U60" s="0" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="V60" s="0" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="W60" s="0" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>0</v>
@@ -8833,10 +8841,10 @@
         <v>4</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>781</v>
+        <v>107</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="J61" s="0" t="s">
         <v>93</v>
@@ -8848,54 +8856,54 @@
         <v>4</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>783</v>
+        <v>4</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>10</v>
+        <v>764</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>784</v>
+        <v>765</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>766</v>
       </c>
       <c r="Q61" s="0" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="R61" s="0" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="S61" s="0" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="T61" s="0" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="U61" s="0" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="V61" s="0" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W61" s="0" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>3</v>
@@ -8904,13 +8912,13 @@
         <v>4</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>36</v>
+        <v>776</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="K62" s="0" t="s">
         <v>8</v>
@@ -8919,54 +8927,54 @@
         <v>4</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>4</v>
+        <v>778</v>
       </c>
       <c r="N62" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="R62" s="0" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="S62" s="0" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="T62" s="0" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="U62" s="0" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="V62" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W62" s="0" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>3</v>
@@ -8975,22 +8983,22 @@
         <v>4</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>805</v>
+        <v>36</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="L63" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>807</v>
+        <v>4</v>
       </c>
       <c r="N63" s="0" t="s">
         <v>10</v>
@@ -8999,45 +9007,45 @@
         <v>10</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="R63" s="0" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="S63" s="0" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="T63" s="0" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="U63" s="0" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="V63" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W63" s="0" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>3</v>
@@ -9046,63 +9054,63 @@
         <v>4</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>67</v>
+        <v>289</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="L64" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>821</v>
+        <v>10</v>
       </c>
       <c r="O64" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="P64" s="0" t="s">
-        <v>822</v>
+      <c r="P64" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="Q64" s="0" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="R64" s="0" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="S64" s="0" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="T64" s="0" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="U64" s="0" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="V64" s="0" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="W64" s="0" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>178</v>
+        <v>812</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>0</v>
@@ -9117,63 +9125,63 @@
         <v>4</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>180</v>
+        <v>814</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>181</v>
+        <v>647</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="L65" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="N65" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P65" s="0" t="s">
-        <v>833</v>
+        <v>11</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>816</v>
       </c>
       <c r="Q65" s="0" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="R65" s="0" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="S65" s="0" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="T65" s="0" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
       <c r="U65" s="0" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="V65" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W65" s="0" t="s">
-        <v>189</v>
+        <v>822</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>178</v>
+        <v>825</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>0</v>
@@ -9188,69 +9196,69 @@
         <v>4</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>278</v>
+        <v>827</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="L66" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="N66" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P66" s="0" t="s">
-        <v>843</v>
+        <v>11</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="Q66" s="0" t="s">
-        <v>844</v>
+        <v>243</v>
       </c>
       <c r="R66" s="0" t="s">
-        <v>845</v>
+        <v>244</v>
       </c>
       <c r="S66" s="0" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="T66" s="0" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
       <c r="U66" s="0" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
       <c r="V66" s="0" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="W66" s="0" t="s">
-        <v>189</v>
+        <v>832</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>3</v>
@@ -9259,63 +9267,63 @@
         <v>4</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>195</v>
+        <v>838</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="L67" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>854</v>
+        <v>4</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>10</v>
+        <v>839</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P67" s="0" t="s">
-        <v>855</v>
+        <v>840</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>841</v>
       </c>
       <c r="Q67" s="0" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="R67" s="0" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="S67" s="0" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="T67" s="0" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="U67" s="0" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="V67" s="0" t="s">
         <v>60</v>
       </c>
       <c r="W67" s="0" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>0</v>
@@ -9333,7 +9341,7 @@
         <v>36</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>136</v>
@@ -9348,51 +9356,51 @@
         <v>4</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
       <c r="O68" s="0" t="s">
         <v>10</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="S68" s="0" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="T68" s="0" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="U68" s="0" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="V68" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W68" s="0" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>780</v>
+        <v>859</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="0" t="s">
         <v>3</v>
@@ -9401,13 +9409,13 @@
         <v>4</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>782</v>
+        <v>861</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="K69" s="0" t="s">
         <v>8</v>
@@ -9416,54 +9424,54 @@
         <v>4</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="N69" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="S69" s="0" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="T69" s="0" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="U69" s="0" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="V69" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W69" s="0" t="s">
-        <v>790</v>
+        <v>869</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>3</v>
@@ -9472,13 +9480,13 @@
         <v>4</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="K70" s="0" t="s">
         <v>8</v>
@@ -9487,48 +9495,48 @@
         <v>4</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="N70" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="P70" s="0" t="s">
-        <v>887</v>
+        <v>10</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>876</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="S70" s="0" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="T70" s="0" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="U70" s="0" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="V70" s="0" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W70" s="0" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>0</v>
@@ -9543,16 +9551,16 @@
         <v>4</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>107</v>
+        <v>885</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>93</v>
+        <v>838</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>8</v>
+        <v>534</v>
       </c>
       <c r="L71" s="0" t="s">
         <v>4</v>
@@ -9561,45 +9569,45 @@
         <v>4</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>899</v>
-      </c>
-      <c r="P71" s="0" t="s">
-        <v>900</v>
+        <v>10</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>888</v>
       </c>
       <c r="Q71" s="0" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="R71" s="0" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="S71" s="0" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="T71" s="0" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="U71" s="0" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="V71" s="0" t="s">
         <v>60</v>
       </c>
       <c r="W71" s="0" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>5</v>
@@ -9614,13 +9622,13 @@
         <v>4</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="K72" s="0" t="s">
         <v>8</v>
@@ -9629,54 +9637,54 @@
         <v>4</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="N72" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="P72" s="0" t="s">
-        <v>913</v>
+        <v>10</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>901</v>
       </c>
       <c r="Q72" s="0" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="R72" s="0" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="S72" s="0" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="T72" s="0" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="U72" s="0" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="V72" s="0" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W72" s="0" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>3</v>
@@ -9685,22 +9693,22 @@
         <v>4</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>36</v>
+        <v>911</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>8</v>
+        <v>509</v>
       </c>
       <c r="L73" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>4</v>
+        <v>913</v>
       </c>
       <c r="N73" s="0" t="s">
         <v>10</v>
@@ -9708,46 +9716,46 @@
       <c r="O73" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="P73" s="2" t="s">
-        <v>924</v>
+      <c r="P73" s="0" t="s">
+        <v>914</v>
       </c>
       <c r="Q73" s="0" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="R73" s="0" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="S73" s="0" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="T73" s="0" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="U73" s="0" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="V73" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W73" s="0" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>933</v>
+        <v>178</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>3</v>
@@ -9756,13 +9764,13 @@
         <v>4</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>302</v>
+        <v>24</v>
       </c>
       <c r="K74" s="0" t="s">
         <v>166</v>
@@ -9771,7 +9779,7 @@
         <v>4</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="N74" s="0" t="s">
         <v>10</v>
@@ -9779,46 +9787,46 @@
       <c r="O74" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="P74" s="2" t="s">
-        <v>937</v>
+      <c r="P74" s="0" t="s">
+        <v>925</v>
       </c>
       <c r="Q74" s="0" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="R74" s="0" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="S74" s="0" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="T74" s="0" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="U74" s="0" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="V74" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W74" s="0" t="s">
-        <v>943</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>3</v>
@@ -9827,13 +9835,13 @@
         <v>4</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>768</v>
+        <v>93</v>
       </c>
       <c r="K75" s="0" t="s">
         <v>8</v>
@@ -9842,54 +9850,54 @@
         <v>4</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="Q75" s="0" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="R75" s="0" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="S75" s="0" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="T75" s="0" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="U75" s="0" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="V75" s="0" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W75" s="0" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>959</v>
+        <v>192</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>3</v>
@@ -9898,69 +9906,69 @@
         <v>4</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>961</v>
+        <v>194</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="L76" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
       <c r="N76" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>242</v>
+        <v>10</v>
+      </c>
+      <c r="P76" s="0" t="s">
+        <v>948</v>
       </c>
       <c r="Q76" s="0" t="s">
-        <v>243</v>
+        <v>949</v>
       </c>
       <c r="R76" s="0" t="s">
-        <v>244</v>
+        <v>950</v>
       </c>
       <c r="S76" s="0" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="T76" s="0" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="U76" s="0" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="V76" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W76" s="0" t="s">
-        <v>966</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>3</v>
@@ -9969,63 +9977,63 @@
         <v>4</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>316</v>
+        <v>38</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>367</v>
+        <v>166</v>
       </c>
       <c r="L77" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>4</v>
+        <v>959</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>973</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>974</v>
+        <v>649</v>
+      </c>
+      <c r="P77" s="0" t="s">
+        <v>961</v>
       </c>
       <c r="Q77" s="0" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="R77" s="0" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="S77" s="0" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="T77" s="0" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="U77" s="0" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="V77" s="0" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="W77" s="0" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>435</v>
+        <v>970</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>0</v>
@@ -10040,69 +10048,69 @@
         <v>4</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>36</v>
+        <v>971</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="L78" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>4</v>
+        <v>973</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>437</v>
+        <v>10</v>
       </c>
       <c r="O78" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="P78" s="0" t="s">
-        <v>984</v>
+      <c r="P78" s="2" t="s">
+        <v>974</v>
       </c>
       <c r="Q78" s="0" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="R78" s="0" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="S78" s="0" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="T78" s="0" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="U78" s="0" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="V78" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W78" s="0" t="s">
-        <v>444</v>
+        <v>980</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>3</v>
@@ -10111,13 +10119,13 @@
         <v>4</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="K79" s="0" t="s">
         <v>8</v>
@@ -10126,54 +10134,54 @@
         <v>4</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="N79" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>996</v>
+        <v>10</v>
+      </c>
+      <c r="P79" s="0" t="s">
+        <v>987</v>
       </c>
       <c r="Q79" s="0" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="R79" s="0" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="S79" s="0" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="T79" s="0" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="U79" s="0" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="V79" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W79" s="0" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F80" s="0" t="s">
         <v>3</v>
@@ -10182,22 +10190,22 @@
         <v>4</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>302</v>
+        <v>152</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>8</v>
+        <v>509</v>
       </c>
       <c r="L80" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="N80" s="0" t="s">
         <v>10</v>
@@ -10206,45 +10214,45 @@
         <v>10</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="R80" s="0" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="S80" s="0" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="T80" s="0" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="U80" s="0" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="V80" s="0" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="W80" s="0" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="0" t="s">
         <v>3</v>
@@ -10253,69 +10261,69 @@
         <v>4</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>317</v>
+        <v>8</v>
       </c>
       <c r="L81" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>4</v>
+        <v>1010</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>1021</v>
+        <v>1011</v>
+      </c>
+      <c r="P81" s="0" t="s">
+        <v>1012</v>
       </c>
       <c r="Q81" s="0" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="R81" s="0" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="S81" s="0" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="T81" s="0" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="U81" s="0" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="V81" s="0" t="s">
         <v>60</v>
       </c>
       <c r="W81" s="0" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>3</v>
@@ -10324,13 +10332,13 @@
         <v>4</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>1031</v>
+        <v>36</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="K82" s="0" t="s">
         <v>8</v>
@@ -10339,48 +10347,48 @@
         <v>4</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>1033</v>
+        <v>4</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O82" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="Q82" s="0" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="R82" s="0" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="S82" s="0" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="T82" s="0" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="U82" s="0" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="V82" s="0" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="W82" s="0" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>0</v>
@@ -10395,22 +10403,22 @@
         <v>4</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>591</v>
+        <v>8</v>
       </c>
       <c r="L83" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="N83" s="0" t="s">
         <v>10</v>
@@ -10419,39 +10427,39 @@
         <v>10</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="Q83" s="0" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="R83" s="0" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="S83" s="0" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="T83" s="0" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="U83" s="0" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="V83" s="0" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W83" s="0" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>178</v>
+        <v>1044</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>0</v>
@@ -10466,13 +10474,13 @@
         <v>4</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="K84" s="0" t="s">
         <v>166</v>
@@ -10481,7 +10489,7 @@
         <v>4</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="N84" s="0" t="s">
         <v>10</v>
@@ -10490,45 +10498,45 @@
         <v>10</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="Q84" s="0" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="R84" s="0" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="S84" s="0" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="T84" s="0" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="U84" s="0" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="V84" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W84" s="0" t="s">
-        <v>189</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>1066</v>
+        <v>178</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="0" t="s">
         <v>3</v>
@@ -10537,69 +10545,69 @@
         <v>4</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>1068</v>
+        <v>265</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="L85" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="O85" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="P85" s="2" t="s">
-        <v>1070</v>
+      <c r="P85" s="0" t="s">
+        <v>1059</v>
       </c>
       <c r="Q85" s="0" t="s">
-        <v>1071</v>
+        <v>1060</v>
       </c>
       <c r="R85" s="0" t="s">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="S85" s="0" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
       <c r="T85" s="0" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="U85" s="0" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="V85" s="0" t="s">
         <v>60</v>
       </c>
       <c r="W85" s="0" t="s">
-        <v>1076</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>3</v>
@@ -10608,69 +10616,69 @@
         <v>4</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>1079</v>
+        <v>36</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>194</v>
+        <v>1067</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>196</v>
+        <v>8</v>
       </c>
       <c r="L86" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>1080</v>
+        <v>4</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="Q86" s="0" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="R86" s="0" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="S86" s="0" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="T86" s="0" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="U86" s="0" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="V86" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W86" s="0" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1</v>
+        <v>18297</v>
       </c>
       <c r="F87" s="0" t="s">
         <v>3</v>
@@ -10679,13 +10687,13 @@
         <v>4</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>1090</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>1091</v>
+        <v>1077</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>1078</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="K87" s="0" t="s">
         <v>166</v>
@@ -10694,54 +10702,51 @@
         <v>4</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="O87" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="P87" s="0" t="s">
-        <v>1094</v>
+        <v>1081</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>1082</v>
       </c>
       <c r="Q87" s="0" t="s">
-        <v>1095</v>
-      </c>
-      <c r="R87" s="0" t="s">
-        <v>1096</v>
+        <v>10</v>
       </c>
       <c r="S87" s="0" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="T87" s="0" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
       <c r="U87" s="0" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="V87" s="0" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W87" s="0" t="s">
-        <v>1100</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>1101</v>
+        <v>1086</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>1102</v>
+        <v>1087</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>1103</v>
+        <v>1087</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>3</v>
@@ -10750,69 +10755,69 @@
         <v>4</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>1104</v>
+        <v>1088</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>1105</v>
+        <v>1089</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>166</v>
+        <v>1090</v>
       </c>
       <c r="L88" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>10</v>
+        <v>1092</v>
       </c>
       <c r="O88" s="0" t="s">
         <v>10</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
       <c r="Q88" s="0" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="R88" s="0" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="S88" s="0" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="T88" s="0" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
       <c r="U88" s="0" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="V88" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W88" s="0" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>0</v>
+        <v>8684</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>3</v>
@@ -10821,69 +10826,66 @@
         <v>4</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>1117</v>
-      </c>
-      <c r="I89" s="0" t="s">
-        <v>1118</v>
+        <v>1103</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>1104</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>8</v>
+        <v>1105</v>
       </c>
       <c r="L89" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>10</v>
+        <v>1107</v>
       </c>
       <c r="O89" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P89" s="0" t="s">
-        <v>1120</v>
+        <v>1108</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>1109</v>
       </c>
       <c r="Q89" s="0" t="s">
-        <v>1121</v>
-      </c>
-      <c r="R89" s="0" t="s">
-        <v>1120</v>
+        <v>10</v>
       </c>
       <c r="S89" s="0" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="T89" s="0" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="U89" s="0" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="V89" s="0" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W89" s="0" t="s">
-        <v>1125</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>1126</v>
+        <v>1113</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>1128</v>
+        <v>1115</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>3</v>
@@ -10892,22 +10894,22 @@
         <v>4</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>1130</v>
+        <v>1117</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>152</v>
+        <v>289</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>591</v>
+        <v>166</v>
       </c>
       <c r="L90" s="0" t="s">
         <v>4</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>1131</v>
+        <v>1118</v>
       </c>
       <c r="N90" s="0" t="s">
         <v>10</v>
@@ -10916,45 +10918,45 @@
         <v>10</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>1132</v>
+        <v>1119</v>
       </c>
       <c r="Q90" s="0" t="s">
-        <v>1133</v>
+        <v>1120</v>
       </c>
       <c r="R90" s="0" t="s">
-        <v>1134</v>
+        <v>1121</v>
       </c>
       <c r="S90" s="0" t="s">
-        <v>1135</v>
+        <v>1122</v>
       </c>
       <c r="T90" s="0" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="U90" s="0" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="V90" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W90" s="0" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>1140</v>
+        <v>659</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>3</v>
@@ -10963,13 +10965,13 @@
         <v>4</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>1142</v>
+        <v>661</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K91" s="0" t="s">
         <v>8</v>
@@ -10978,48 +10980,48 @@
         <v>4</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>1143</v>
+        <v>1129</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>1144</v>
+        <v>10</v>
       </c>
       <c r="O91" s="0" t="s">
-        <v>1144</v>
-      </c>
-      <c r="P91" s="0" t="s">
-        <v>1145</v>
+        <v>10</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>1130</v>
       </c>
       <c r="Q91" s="0" t="s">
-        <v>1146</v>
+        <v>1131</v>
       </c>
       <c r="R91" s="0" t="s">
-        <v>1145</v>
+        <v>1132</v>
       </c>
       <c r="S91" s="0" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
       <c r="T91" s="0" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="U91" s="0" t="s">
-        <v>1149</v>
+        <v>1135</v>
       </c>
       <c r="V91" s="0" t="s">
-        <v>60</v>
+        <v>348</v>
       </c>
       <c r="W91" s="0" t="s">
-        <v>1150</v>
+        <v>669</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>1151</v>
+        <v>1136</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>1152</v>
+        <v>1137</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>0</v>
@@ -11030,97 +11032,101 @@
       <c r="F92" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G92" s="0" t="s">
-        <v>4</v>
+      <c r="G92" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>36</v>
+        <v>1139</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>38</v>
+        <v>1141</v>
       </c>
       <c r="K92" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="L92" s="0" t="s">
-        <v>4</v>
+      <c r="L92" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>4</v>
+        <v>1142</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="Q92" s="0" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="R92" s="0" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="S92" s="0" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="T92" s="0" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="U92" s="0" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="V92" s="0" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="W92" s="0" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G93" s="0" t="s">
-        <v>4</v>
+      <c r="G93" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L93" s="0" t="s">
-        <v>4</v>
+        <v>166</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="N93" s="0" t="s">
         <v>10</v>
@@ -11128,70 +11134,72 @@
       <c r="O93" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="P93" s="0" t="s">
-        <v>1168</v>
+      <c r="P93" s="2" t="s">
+        <v>1156</v>
       </c>
       <c r="Q93" s="0" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="R93" s="0" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="S93" s="0" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="T93" s="0" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="U93" s="0" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="V93" s="0" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="W93" s="0" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F94" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="0" t="s">
-        <v>4</v>
+      <c r="G94" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="L94" s="0" t="s">
-        <v>4</v>
+        <v>1168</v>
+      </c>
+      <c r="L94" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
       <c r="N94" s="0" t="s">
         <v>10</v>
@@ -11200,526 +11208,556 @@
         <v>10</v>
       </c>
       <c r="P94" s="0" t="s">
-        <v>1181</v>
+        <v>1170</v>
       </c>
       <c r="Q94" s="0" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="R94" s="0" t="s">
-        <v>1183</v>
+        <v>1172</v>
       </c>
       <c r="S94" s="0" t="s">
-        <v>1184</v>
+        <v>1173</v>
       </c>
       <c r="T94" s="0" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
       <c r="U94" s="0" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="V94" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W94" s="0" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>178</v>
+        <v>1179</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G95" s="0" t="s">
-        <v>4</v>
+      <c r="G95" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>278</v>
+        <v>1181</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="K95" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="L95" s="0" t="s">
-        <v>4</v>
+      <c r="L95" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="M95" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="N95" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O95" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P95" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="Q95" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="R95" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="S95" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="T95" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="U95" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="V95" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="W95" s="0" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B96" s="0" t="s">
         <v>1191</v>
       </c>
-      <c r="N95" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O95" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P95" s="0" t="s">
+      <c r="C96" s="0" t="s">
         <v>1192</v>
       </c>
-      <c r="Q95" s="0" t="s">
-        <v>1193</v>
-      </c>
-      <c r="R95" s="0" t="s">
-        <v>1194</v>
-      </c>
-      <c r="S95" s="0" t="s">
-        <v>1195</v>
-      </c>
-      <c r="T95" s="0" t="s">
-        <v>1196</v>
-      </c>
-      <c r="U95" s="0" t="s">
-        <v>1197</v>
-      </c>
-      <c r="V95" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="W95" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>264</v>
-      </c>
       <c r="D96" s="0" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G96" s="0" t="s">
-        <v>4</v>
+      <c r="G96" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>36</v>
+        <v>1193</v>
       </c>
       <c r="I96" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="L96" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="N96" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O96" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P96" s="0" t="s">
+        <v>1196</v>
+      </c>
+      <c r="Q96" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="R96" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="S96" s="0" t="s">
+        <v>1199</v>
+      </c>
+      <c r="T96" s="0" t="s">
         <v>1200</v>
       </c>
-      <c r="J96" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="K96" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L96" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M96" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="N96" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="O96" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="P96" s="0" t="s">
+      <c r="U96" s="0" t="s">
         <v>1201</v>
-      </c>
-      <c r="Q96" s="0" t="s">
-        <v>1202</v>
-      </c>
-      <c r="R96" s="0" t="s">
-        <v>1203</v>
-      </c>
-      <c r="S96" s="0" t="s">
-        <v>1204</v>
-      </c>
-      <c r="T96" s="0" t="s">
-        <v>1205</v>
-      </c>
-      <c r="U96" s="0" t="s">
-        <v>1206</v>
       </c>
       <c r="V96" s="0" t="s">
         <v>17</v>
       </c>
       <c r="W96" s="0" t="s">
-        <v>274</v>
+        <v>1202</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>18297</v>
+        <v>8</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G97" s="0" t="s">
-        <v>4</v>
+      <c r="G97" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H97" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="L97" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="N97" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O97" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P97" s="0" t="s">
+        <v>1209</v>
+      </c>
+      <c r="Q97" s="0" t="s">
         <v>1210</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="R97" s="0" t="s">
         <v>1211</v>
       </c>
-      <c r="J97" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K97" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="L97" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M97" s="0" t="s">
+      <c r="S97" s="0" t="s">
         <v>1212</v>
       </c>
-      <c r="N97" s="0" t="s">
+      <c r="T97" s="0" t="s">
         <v>1213</v>
       </c>
-      <c r="O97" s="0" t="s">
+      <c r="U97" s="0" t="s">
         <v>1214</v>
       </c>
-      <c r="P97" s="2" t="s">
+      <c r="V97" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="W97" s="0" t="s">
         <v>1215</v>
       </c>
-      <c r="Q97" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="S97" s="0" t="s">
+    </row>
+    <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
         <v>1216</v>
       </c>
-      <c r="T97" s="0" t="s">
+      <c r="B98" s="0" t="s">
         <v>1217</v>
       </c>
-      <c r="U97" s="0" t="s">
-        <v>1218</v>
-      </c>
-      <c r="V97" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="W97" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>1220</v>
-      </c>
       <c r="C98" s="0" t="s">
-        <v>1220</v>
+        <v>659</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G98" s="0" t="s">
-        <v>4</v>
+      <c r="G98" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H98" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L98" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N98" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O98" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P98" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="I98" s="0" t="s">
+      <c r="Q98" s="0" t="s">
         <v>1222</v>
       </c>
-      <c r="J98" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="K98" s="0" t="s">
+      <c r="R98" s="0" t="s">
         <v>1223</v>
       </c>
-      <c r="L98" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M98" s="0" t="s">
+      <c r="S98" s="0" t="s">
         <v>1224</v>
       </c>
-      <c r="N98" s="0" t="s">
+      <c r="T98" s="0" t="s">
         <v>1225</v>
       </c>
-      <c r="O98" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P98" s="2" t="s">
+      <c r="U98" s="0" t="s">
         <v>1226</v>
       </c>
-      <c r="Q98" s="0" t="s">
+      <c r="V98" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="W98" s="0" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
         <v>1227</v>
       </c>
-      <c r="R98" s="0" t="s">
+      <c r="B99" s="0" t="s">
         <v>1228</v>
       </c>
-      <c r="S98" s="0" t="s">
+      <c r="C99" s="0" t="s">
         <v>1229</v>
       </c>
-      <c r="T98" s="0" t="s">
-        <v>1230</v>
-      </c>
-      <c r="U98" s="0" t="s">
-        <v>1231</v>
-      </c>
-      <c r="V98" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="W98" s="0" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>1235</v>
-      </c>
       <c r="D99" s="0" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>8684</v>
+        <v>2</v>
       </c>
       <c r="F99" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G99" s="0" t="s">
-        <v>4</v>
+      <c r="G99" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H99" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I99" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L99" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="N99" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O99" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Q99" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="R99" s="0" t="s">
+        <v>1235</v>
+      </c>
+      <c r="S99" s="0" t="s">
         <v>1236</v>
       </c>
-      <c r="I99" s="3" t="s">
+      <c r="T99" s="0" t="s">
         <v>1237</v>
       </c>
-      <c r="J99" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="K99" s="0" t="s">
+      <c r="U99" s="0" t="s">
         <v>1238</v>
       </c>
-      <c r="L99" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M99" s="0" t="s">
+      <c r="V99" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="W99" s="0" t="s">
         <v>1239</v>
       </c>
-      <c r="N99" s="0" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
         <v>1240</v>
       </c>
-      <c r="O99" s="0" t="s">
+      <c r="B100" s="0" t="s">
         <v>1241</v>
       </c>
-      <c r="P99" s="2" t="s">
+      <c r="C100" s="0" t="s">
         <v>1242</v>
       </c>
-      <c r="Q99" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="S99" s="0" t="s">
-        <v>1243</v>
-      </c>
-      <c r="T99" s="0" t="s">
-        <v>1244</v>
-      </c>
-      <c r="U99" s="0" t="s">
-        <v>1245</v>
-      </c>
-      <c r="V99" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="W99" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>1248</v>
-      </c>
       <c r="D100" s="0" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F100" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="0" t="s">
-        <v>4</v>
+      <c r="G100" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H100" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I100" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="N100" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O100" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P100" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="Q100" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="R100" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="S100" s="0" t="s">
         <v>1249</v>
       </c>
-      <c r="I100" s="0" t="s">
+      <c r="T100" s="0" t="s">
         <v>1250</v>
       </c>
-      <c r="J100" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="K100" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="L100" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="0" t="s">
+      <c r="U100" s="0" t="s">
         <v>1251</v>
       </c>
-      <c r="N100" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O100" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P100" s="2" t="s">
+      <c r="V100" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="W100" s="0" t="s">
         <v>1252</v>
       </c>
-      <c r="Q100" s="0" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>1253</v>
       </c>
-      <c r="R100" s="0" t="s">
+      <c r="B101" s="0" t="s">
         <v>1254</v>
       </c>
-      <c r="S100" s="0" t="s">
+      <c r="C101" s="0" t="s">
         <v>1255</v>
       </c>
-      <c r="T100" s="0" t="s">
-        <v>1256</v>
-      </c>
-      <c r="U100" s="0" t="s">
-        <v>1257</v>
-      </c>
-      <c r="V100" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="W100" s="0" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>780</v>
-      </c>
       <c r="D101" s="0" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F101" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="0" t="s">
-        <v>4</v>
+      <c r="G101" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="H101" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I101" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="L101" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="N101" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O101" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Q101" s="0" t="s">
+        <v>1260</v>
+      </c>
+      <c r="R101" s="0" t="s">
         <v>1261</v>
       </c>
-      <c r="I101" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="J101" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="K101" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="0" t="s">
+      <c r="S101" s="0" t="s">
         <v>1262</v>
       </c>
-      <c r="N101" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O101" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P101" s="2" t="s">
+      <c r="T101" s="0" t="s">
         <v>1263</v>
       </c>
-      <c r="Q101" s="0" t="s">
+      <c r="U101" s="0" t="s">
         <v>1264</v>
       </c>
-      <c r="R101" s="0" t="s">
+      <c r="V101" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="W101" s="0" t="s">
         <v>1265</v>
       </c>
-      <c r="S101" s="0" t="s">
-        <v>1266</v>
-      </c>
-      <c r="T101" s="0" t="s">
-        <v>1267</v>
-      </c>
-      <c r="U101" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="V101" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="W101" s="0" t="s">
-        <v>790</v>
-      </c>
     </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I18" r:id="rId1" display="https://images-na.ssl-images-amazon.com/images/I/51I82gI0g8L.png"/>
-    <hyperlink ref="I97" r:id="rId2" display="https://m.media-amazon.com/images/I/71UDTEgBvaL.png"/>
-    <hyperlink ref="I99" r:id="rId3" display="https://m.media-amazon.com/images/I/71w6w0p1YyL.png"/>
+    <hyperlink ref="I87" r:id="rId2" display="https://m.media-amazon.com/images/I/71UDTEgBvaL.png"/>
+    <hyperlink ref="I89" r:id="rId3" display="https://m.media-amazon.com/images/I/71w6w0p1YyL.png"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/dataset_2022/benchmark2022.xlsx
+++ b/dataset_2022/benchmark2022.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1266">
   <si>
     <t xml:space="preserve">B081K3R8HJ</t>
   </si>
@@ -4547,8 +4547,8 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B110" activeCellId="0" sqref="B110"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P101" activeCellId="0" sqref="P101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10732,7 +10732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>1086</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>1100</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>1113</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>1126</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>1136</v>
       </c>
@@ -11032,9 +11032,8 @@
       <c r="F92" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G92" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="G92" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>1139</v>
@@ -11048,9 +11047,8 @@
       <c r="K92" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="L92" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="L92" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="M92" s="0" t="s">
         <v>1142</v>
@@ -11086,7 +11084,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>1150</v>
       </c>
@@ -11105,9 +11103,8 @@
       <c r="F93" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G93" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="G93" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>1153</v>
@@ -11121,9 +11118,8 @@
       <c r="K93" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="L93" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="L93" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="M93" s="0" t="s">
         <v>1155</v>
@@ -11159,7 +11155,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>1163</v>
       </c>
@@ -11178,9 +11174,8 @@
       <c r="F94" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="G94" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>1166</v>
@@ -11194,9 +11189,8 @@
       <c r="K94" s="0" t="s">
         <v>1168</v>
       </c>
-      <c r="L94" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="L94" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="0" t="s">
         <v>1169</v>
@@ -11232,7 +11226,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>1177</v>
       </c>
@@ -11251,9 +11245,8 @@
       <c r="F95" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G95" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="G95" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>1180</v>
@@ -11267,9 +11260,8 @@
       <c r="K95" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="L95" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="L95" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="M95" s="0" t="s">
         <v>1182</v>
@@ -11305,7 +11297,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>1190</v>
       </c>
@@ -11324,9 +11316,8 @@
       <c r="F96" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G96" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="G96" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>1193</v>
@@ -11340,9 +11331,8 @@
       <c r="K96" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="L96" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="L96" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="M96" s="0" t="s">
         <v>1195</v>
@@ -11378,7 +11368,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>1203</v>
       </c>
@@ -11397,9 +11387,8 @@
       <c r="F97" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G97" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="G97" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>1206</v>
@@ -11413,9 +11402,8 @@
       <c r="K97" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="L97" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="L97" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="M97" s="0" t="s">
         <v>1208</v>
@@ -11451,7 +11439,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>1216</v>
       </c>
@@ -11470,9 +11458,8 @@
       <c r="F98" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G98" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="G98" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>1218</v>
@@ -11486,9 +11473,8 @@
       <c r="K98" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="L98" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="L98" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="M98" s="0" t="s">
         <v>1220</v>
@@ -11524,7 +11510,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>1227</v>
       </c>
@@ -11543,9 +11529,8 @@
       <c r="F99" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G99" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="G99" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>1230</v>
@@ -11559,9 +11544,8 @@
       <c r="K99" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="L99" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="L99" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="M99" s="0" t="s">
         <v>1232</v>
@@ -11597,7 +11581,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>1240</v>
       </c>
@@ -11616,9 +11600,8 @@
       <c r="F100" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="G100" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>1243</v>
@@ -11632,9 +11615,8 @@
       <c r="K100" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="L100" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="0" t="s">
         <v>1245</v>
@@ -11670,7 +11652,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>1253</v>
       </c>
@@ -11689,9 +11671,8 @@
       <c r="F101" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="G101" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>1256</v>
@@ -11705,9 +11686,8 @@
       <c r="K101" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="L101" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="L101" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="0" t="s">
         <v>1258</v>

--- a/dataset_2022/benchmark2022.xlsx
+++ b/dataset_2022/benchmark2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IoT\4-GPT4_Vitas\GPT4_vitas\dataset_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB8DACE-0630-4602-9568-CD09AA552DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B73985-497A-4EC6-949A-B3A4703BFFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4391,6 +4391,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4801,7 +4802,7 @@
   <dimension ref="A1:W101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/dataset_2022/benchmark2022.xlsx
+++ b/dataset_2022/benchmark2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IoT\4-GPT4_Vitas\GPT4_vitas\dataset_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etemp\IoT\4-Elevate\GPT4_vitas\dataset_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B73985-497A-4EC6-949A-B3A4703BFFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C162E57B-8BD5-4AEC-95CC-C70B3F2259CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4801,8 +4801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
